--- a/backend/translations.xlsx
+++ b/backend/translations.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,10 +427,10 @@
         <v>English → Santhali</v>
       </c>
       <c r="C2" t="str">
-        <v>talk</v>
+        <v>walk</v>
       </c>
       <c r="D2" t="str">
-        <v>ᱨᱚᱯᱚᱲ</v>
+        <v>ᱛᱟᱲᱟᱢ</v>
       </c>
       <c r="E2" t="str">
         <v/>
@@ -450,7 +450,7 @@
         <v>ᱛᱟᱲᱟᱢ</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>ᱛᱟᱲᱟ</v>
       </c>
     </row>
     <row r="4">
@@ -461,13 +461,13 @@
         <v>English → Santhali</v>
       </c>
       <c r="C4" t="str">
-        <v>walk</v>
+        <v>stupid</v>
       </c>
       <c r="D4" t="str">
-        <v>ᱛᱟᱲᱟᱢ</v>
+        <v>ᱢᱩᱨᱩᱠ</v>
       </c>
       <c r="E4" t="str">
-        <v>ᱛᱟᱲᱟ</v>
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -478,10 +478,10 @@
         <v>English → Santhali</v>
       </c>
       <c r="C5" t="str">
-        <v>stupid</v>
+        <v>mad</v>
       </c>
       <c r="D5" t="str">
-        <v>ᱢᱩᱨᱩᱠ</v>
+        <v>ᱯᱟᱜᱽᱞᱟ</v>
       </c>
       <c r="E5" t="str">
         <v/>
@@ -501,7 +501,7 @@
         <v>ᱯᱟᱜᱽᱞᱟ</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>ᱯᱟᱜᱽᱞ</v>
       </c>
     </row>
     <row r="7">
@@ -509,16 +509,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>English → Santhali</v>
+        <v>Santhali → English</v>
       </c>
       <c r="C7" t="str">
-        <v>mad</v>
+        <v>ᱚᱡᱨᱯᱶᱽ</v>
       </c>
       <c r="D7" t="str">
-        <v>ᱯᱟᱜᱽᱞᱟ</v>
+        <v>ojrpv.</v>
       </c>
       <c r="E7" t="str">
-        <v>ᱯᱟᱜᱽᱞ</v>
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -529,10 +529,10 @@
         <v>Santhali → English</v>
       </c>
       <c r="C8" t="str">
-        <v>ᱚᱡᱨᱯᱶᱽ</v>
+        <v>ᱟᱤᱩᱮᱳ</v>
       </c>
       <c r="D8" t="str">
-        <v>ojrpv.</v>
+        <v>IUO</v>
       </c>
       <c r="E8" t="str">
         <v/>
@@ -552,7 +552,7 @@
         <v>IUO</v>
       </c>
       <c r="E9" t="str">
-        <v/>
+        <v>UNO</v>
       </c>
     </row>
     <row r="10">
@@ -563,13 +563,13 @@
         <v>Santhali → English</v>
       </c>
       <c r="C10" t="str">
-        <v>ᱟᱤᱩᱮᱳ</v>
+        <v>ᱚᱠᱦᱬᱲ</v>
       </c>
       <c r="D10" t="str">
-        <v>IUO</v>
+        <v>delay;</v>
       </c>
       <c r="E10" t="str">
-        <v>UNO</v>
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -580,10 +580,10 @@
         <v>Santhali → English</v>
       </c>
       <c r="C11" t="str">
-        <v>ᱚᱠᱦᱬᱲ</v>
+        <v>ᱟᱥᱫᱱᱷᱽ</v>
       </c>
       <c r="D11" t="str">
-        <v>delay;</v>
+        <v>ashdnh.</v>
       </c>
       <c r="E11" t="str">
         <v/>
@@ -603,7 +603,7 @@
         <v>ashdnh.</v>
       </c>
       <c r="E12" t="str">
-        <v/>
+        <v>ashdn</v>
       </c>
     </row>
     <row r="13">
@@ -611,16 +611,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>Santhali → English</v>
+        <v>English → Santhali</v>
       </c>
       <c r="C13" t="str">
-        <v>ᱟᱥᱫᱱᱷᱽ</v>
+        <v>sleep</v>
       </c>
       <c r="D13" t="str">
-        <v>ashdnh.</v>
+        <v>ᱡᱟᱹᱯᱤᱫ ᱢᱮ</v>
       </c>
       <c r="E13" t="str">
-        <v>ashdn</v>
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -631,10 +631,10 @@
         <v>English → Santhali</v>
       </c>
       <c r="C14" t="str">
-        <v>sleep</v>
+        <v>study</v>
       </c>
       <c r="D14" t="str">
-        <v>ᱡᱟᱹᱯᱤᱫ ᱢᱮ</v>
+        <v>ᱯᱟᱲᱦᱟᱣ</v>
       </c>
       <c r="E14" t="str">
         <v/>
@@ -654,7 +654,7 @@
         <v>ᱯᱟᱲᱦᱟᱣ</v>
       </c>
       <c r="E15" t="str">
-        <v/>
+        <v>ᱯᱟᱲᱦᱟ</v>
       </c>
     </row>
     <row r="16">
@@ -671,7 +671,7 @@
         <v>ᱯᱟᱲᱦᱟᱣ</v>
       </c>
       <c r="E16" t="str">
-        <v>ᱯᱟᱲᱦᱟ</v>
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -682,10 +682,10 @@
         <v>English → Santhali</v>
       </c>
       <c r="C17" t="str">
-        <v>study</v>
+        <v>playing</v>
       </c>
       <c r="D17" t="str">
-        <v>ᱯᱟᱲᱦᱟᱣ</v>
+        <v>ᱠᱷᱮᱞᱚᱜ ᱠᱟᱱᱟ</v>
       </c>
       <c r="E17" t="str">
         <v/>
@@ -705,7 +705,7 @@
         <v>ᱠᱷᱮᱞᱚᱜ ᱠᱟᱱᱟ</v>
       </c>
       <c r="E18" t="str">
-        <v/>
+        <v>ᱠᱷᱮᱞᱚᱜ ᱠᱟ</v>
       </c>
     </row>
     <row r="19">
@@ -713,16 +713,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>English → Santhali</v>
+        <v>Santhali → English</v>
       </c>
       <c r="C19" t="str">
         <v>playing</v>
       </c>
       <c r="D19" t="str">
-        <v>ᱠᱷᱮᱞᱚᱜ ᱠᱟᱱᱟ</v>
+        <v>playing</v>
       </c>
       <c r="E19" t="str">
-        <v>ᱠᱷᱮᱞᱚᱜ ᱠᱟ</v>
+        <v/>
       </c>
     </row>
     <row r="20">
@@ -730,16 +730,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <v>Santhali → English</v>
+        <v>English → Santhali</v>
       </c>
       <c r="C20" t="str">
-        <v>playing</v>
+        <v>sleeping</v>
       </c>
       <c r="D20" t="str">
-        <v>playing</v>
+        <v>ᱡᱟᱹᱯᱤᱫ</v>
       </c>
       <c r="E20" t="str">
-        <v/>
+        <v>ᱡᱟᱹᱯ</v>
       </c>
     </row>
     <row r="21">
@@ -750,13 +750,13 @@
         <v>English → Santhali</v>
       </c>
       <c r="C21" t="str">
-        <v>sleeping</v>
+        <v>nature</v>
       </c>
       <c r="D21" t="str">
-        <v>ᱡᱟᱹᱯᱤᱫ</v>
+        <v>ᱥᱤᱨᱡᱚᱱ</v>
       </c>
       <c r="E21" t="str">
-        <v>ᱡᱟᱹᱯ</v>
+        <v/>
       </c>
     </row>
     <row r="22">
@@ -767,13 +767,13 @@
         <v>English → Santhali</v>
       </c>
       <c r="C22" t="str">
-        <v>nature</v>
+        <v>natural</v>
       </c>
       <c r="D22" t="str">
-        <v>ᱥᱤᱨᱡᱚᱱ</v>
+        <v>ᱥᱟᱪᱟᱨᱛ</v>
       </c>
       <c r="E22" t="str">
-        <v/>
+        <v>ᱥᱟᱪᱟᱨ</v>
       </c>
     </row>
     <row r="23">
@@ -781,21 +781,397 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <v>English → Santhali</v>
+        <v>Santhali → English</v>
       </c>
       <c r="C23" t="str">
-        <v>natural</v>
+        <v>ᱚᱛᱜᱝᱞ</v>
       </c>
       <c r="D23" t="str">
-        <v>ᱥᱟᱪᱟᱨᱛ</v>
+        <v>otgngl</v>
       </c>
       <c r="E23" t="str">
-        <v>ᱥᱟᱪᱟᱨ</v>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C24" t="str">
+        <v>eating</v>
+      </c>
+      <c r="D24" t="str">
+        <v>ᱡᱚᱢ</v>
+      </c>
+      <c r="E24" t="str">
+        <v>ᱡᱚᱢ</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C25" t="str">
+        <v>how are you?</v>
+      </c>
+      <c r="D25" t="str">
+        <v>ᱪᱮᱫ ᱞᱮᱠᱟ ᱢᱮᱱᱟᱢᱟ?</v>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C26" t="str">
+        <v>eat</v>
+      </c>
+      <c r="D26" t="str">
+        <v>ᱡᱚᱢ ᱢᱮ</v>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C27" t="str">
+        <v>hello</v>
+      </c>
+      <c r="D27" t="str">
+        <v>ᱡᱚᱦᱟᱨ</v>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C28" t="str">
+        <v>jhg</v>
+      </c>
+      <c r="D28" t="str">
+        <v>jhg</v>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C29" t="str">
+        <v>walkᱚ</v>
+      </c>
+      <c r="D29" t="str">
+        <v>ᱛᱟᱲᱟᱢ</v>
+      </c>
+      <c r="E29" t="str">
+        <v>ᱛᱟᱲᱟᱢ</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C30" t="str">
+        <v>how are you</v>
+      </c>
+      <c r="D30" t="str">
+        <v>ᱟᱢ ᱪᱮᱫ ᱞᱮᱠᱟ ᱢᱮᱱᱟᱢᱟ</v>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C31" t="str">
+        <v xml:space="preserve">how </v>
+      </c>
+      <c r="D31" t="str">
+        <v xml:space="preserve">ᱪᱮᱫ ᱞᱮᱠᱟ </v>
+      </c>
+      <c r="E31" t="str">
+        <v xml:space="preserve">ᱪᱮᱫ ᱞᱮᱠᱟ </v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C32" t="str">
+        <v>little</v>
+      </c>
+      <c r="D32" t="str">
+        <v>ᱦᱩᱰᱤᱧ</v>
+      </c>
+      <c r="E32" t="str">
+        <v>ᱦᱩᱰᱤᱧ</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Santhali → English</v>
+      </c>
+      <c r="C33" t="str">
+        <v>ᱚᱜᱝᱞ</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Ongl</v>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Santhali → English</v>
+      </c>
+      <c r="C34" t="str">
+        <v>ᱚᱛᱜᱝ</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Otg.</v>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C35" t="str">
+        <v>DOG</v>
+      </c>
+      <c r="D35" t="str">
+        <v>ᱥᱮᱛᱟ</v>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C36" t="str" xml:space="preserve">
+        <v xml:space="preserve">HOW ARE YOU?
+</v>
+      </c>
+      <c r="D36" t="str" xml:space="preserve">
+        <v xml:space="preserve">ᱟ ᱪᱮ ᱞᱮᱠᱟ ᱢᱮᱱᱟᱢᱟ?
+ᱢᱣ</v>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Santhali → English</v>
+      </c>
+      <c r="C37" t="str">
+        <v>ᱚᱜᱝ</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Ong</v>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Santhali → English</v>
+      </c>
+      <c r="C38" t="str">
+        <v>ᱚᱛᱜ</v>
+      </c>
+      <c r="D38" t="str">
+        <v>ground;</v>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C39" t="str">
+        <v>ghjj</v>
+      </c>
+      <c r="D39" t="str">
+        <v>ghjj</v>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Santhali → English</v>
+      </c>
+      <c r="C40" t="str">
+        <v>ᱚᱛᱝ</v>
+      </c>
+      <c r="D40" t="str">
+        <v>clay;</v>
+      </c>
+      <c r="E40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C41" t="str">
+        <v>jknkhugin</v>
+      </c>
+      <c r="D41" t="str">
+        <v>ᱡᱮᱠᱮᱱᱠᱩᱜᱤᱱ</v>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Santhali → English</v>
+      </c>
+      <c r="C42" t="str">
+        <v>ᱚᱜ</v>
+      </c>
+      <c r="D42" t="str">
+        <v>og</v>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Santhali → English</v>
+      </c>
+      <c r="C43" t="str">
+        <v>ᱭᱧ</v>
+      </c>
+      <c r="D43" t="str">
+        <v>I</v>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C44" t="str">
+        <v>fgkmlm</v>
+      </c>
+      <c r="D44" t="str">
+        <v>ᱮᱯᱡᱤᱠᱮᱢᱮᱞᱢ</v>
+      </c>
+      <c r="E44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C45" t="str">
+        <v>fhjk</v>
+      </c>
+      <c r="D45" t="str">
+        <v>fhjk</v>
+      </c>
+      <c r="E45" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E45"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/translations.xlsx
+++ b/backend/translations.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1169,9 +1169,26 @@
         <v/>
       </c>
     </row>
+    <row r="46">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Santhali → English</v>
+      </c>
+      <c r="C46" t="str">
+        <v>ᱚᱡᱧ</v>
+      </c>
+      <c r="D46" t="str">
+        <v>weight.</v>
+      </c>
+      <c r="E46" t="str">
+        <v>weight.uguyut</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E45"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/translations.xlsx
+++ b/backend/translations.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1186,9 +1186,179 @@
         <v>weight.uguyut</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C47" t="str">
+        <v>adada</v>
+      </c>
+      <c r="D47" t="str">
+        <v>ᱴᱟᱹᱯᱩ ᱨᱮ</v>
+      </c>
+      <c r="E47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C48" t="str">
+        <v>asas</v>
+      </c>
+      <c r="D48" t="str">
+        <v>ᱵᱮᱥ</v>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C49" t="str">
+        <v>asasas</v>
+      </c>
+      <c r="D49" t="str">
+        <v>ᱟᱥᱟᱥᱟᱥ</v>
+      </c>
+      <c r="E49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C50" t="str">
+        <v>adadadad</v>
+      </c>
+      <c r="D50" t="str">
+        <v>ᱟᱰᱟᱰᱟᱰᱟᱰᱟ</v>
+      </c>
+      <c r="E50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C51" t="str">
+        <v>adadad</v>
+      </c>
+      <c r="D51" t="str">
+        <v>ᱵᱟᱵᱟ</v>
+      </c>
+      <c r="E51" t="str">
+        <v>ᱵᱟᱵᱟᱢᱢᱨ</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Prerna Pagal Hai</v>
+      </c>
+      <c r="D52" t="str">
+        <v>ᱯᱨᱮᱨᱱᱟ ᱫᱚ ᱯᱟᱜᱽᱞᱟ ᱜᱮᱭᱟᱭ</v>
+      </c>
+      <c r="E52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Prerna is a good girl</v>
+      </c>
+      <c r="D53" t="str">
+        <v>ᱯᱨᱮᱨᱱᱟ ᱫᱚ ᱱᱟᱯᱟᱭ ᱠᱩᱲᱤ ᱠᱟᱱᱟᱭ</v>
+      </c>
+      <c r="E53" t="str">
+        <v>ᱯᱨᱮᱨᱱᱟ ᱫᱚ ᱱᱟᱯᱟᱭ ᱠᱩᱲᱤ ᱠᱟᱱᱟᱭᱢᱣᱤ</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Hi, My name is Nandu aka Nandani</v>
+      </c>
+      <c r="D54" t="str">
+        <v>ᱦᱟᱭ, ᱤᱧᱟᱜ ᱧᱩᱛᱩᱢ ᱫᱚ ᱱᱟᱱᱰᱩ ᱟᱨᱠᱟ ᱱᱟᱱᱰᱟᱱᱤ</v>
+      </c>
+      <c r="E54" t="str">
+        <v>ᱦᱟᱭ, ᱤᱧᱟᱜ ᱧᱩᱛᱩᱢ ᱫᱚ ᱱᱟᱱᱰᱩ ᱟᱨᱠᱟ ᱱᱟᱱᱰᱟᱱᱤᱠᱡᱢ</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="str">
+        <v>English → Santhali</v>
+      </c>
+      <c r="C55" t="str">
+        <v>adad</v>
+      </c>
+      <c r="D55" t="str">
+        <v>ᱵᱟᱵᱟ</v>
+      </c>
+      <c r="E55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Santhali → English</v>
+      </c>
+      <c r="C56" t="str">
+        <v>ᱣᱡᱧᱧ</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Wjng</v>
+      </c>
+      <c r="E56" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E56"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/translations.xlsx
+++ b/backend/translations.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1356,9 +1356,26 @@
         <v/>
       </c>
     </row>
+    <row r="57">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Santhali → English</v>
+      </c>
+      <c r="C57" t="str">
+        <v>ᱧᱨᱢᱣ</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Nrmw</v>
+      </c>
+      <c r="E57" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E56"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E57"/>
   </ignoredErrors>
 </worksheet>
 </file>